--- a/the_basic_of_data_analysis/chapter2_practice.xlsx
+++ b/the_basic_of_data_analysis/chapter2_practice.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -64,8 +65,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -372,7 +374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="A1:B57"/>
     </sheetView>
   </sheetViews>
@@ -845,4 +847,108 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>422.2</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.STDEV.P(D2:D16)</f>
+        <v>8.2003251968036839</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>417.2</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.STDEV.S(D2:D16)</f>
+        <v>8.4881429905823023</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>425.6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>425.8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>423.1</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUM(D2:D16)</f>
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>418.7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>428.2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>438.3</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>412.3</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>431.5</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>413.5</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>441.3</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>420.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>